--- a/materialy/software-mestskych-casti/2016/prehled-software-mc.xlsx
+++ b/materialy/software-mestskych-casti/2016/prehled-software-mc.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="92">
   <si>
     <t>městská část </t>
   </si>
@@ -51,60 +51,78 @@
     <t>Praha 1</t>
   </si>
   <si>
+    <t>Ginis – Gordic/SAP</t>
+  </si>
+  <si>
+    <t>Datacentrum 2</t>
+  </si>
+  <si>
+    <t>eSpis</t>
+  </si>
+  <si>
+    <t>Agendio</t>
+  </si>
+  <si>
+    <t>VITA</t>
+  </si>
+  <si>
+    <t>Docházkový systém</t>
+  </si>
+  <si>
+    <t>Misys</t>
+  </si>
+  <si>
+    <t>Poltel</t>
+  </si>
+  <si>
+    <t>iDES</t>
+  </si>
+  <si>
+    <t>Praha 2</t>
+  </si>
+  <si>
+    <t>Ginis – Gordic</t>
+  </si>
+  <si>
+    <t>Datacentrum</t>
+  </si>
+  <si>
+    <t>CityWare</t>
+  </si>
+  <si>
+    <t>GIS</t>
+  </si>
+  <si>
+    <t>Matrika</t>
+  </si>
+  <si>
+    <t>CDSw</t>
+  </si>
+  <si>
+    <t>T-Wist</t>
+  </si>
+  <si>
+    <t>IDES</t>
+  </si>
+  <si>
+    <t>SVI</t>
+  </si>
+  <si>
+    <t>Praha 3</t>
+  </si>
+  <si>
+    <t>ENO</t>
+  </si>
+  <si>
+    <t>Flux&amp;PM</t>
+  </si>
+  <si>
+    <t>žádný</t>
+  </si>
+  <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>Praha 2</t>
-  </si>
-  <si>
-    <t>Ginis – Gordic</t>
-  </si>
-  <si>
-    <t>Datacentrum</t>
-  </si>
-  <si>
-    <t>eSpis</t>
-  </si>
-  <si>
-    <t>VITA</t>
-  </si>
-  <si>
-    <t>CityWare</t>
-  </si>
-  <si>
-    <t>GIS</t>
-  </si>
-  <si>
-    <t>Matrika</t>
-  </si>
-  <si>
-    <t>CDSw</t>
-  </si>
-  <si>
-    <t>T-Wist</t>
-  </si>
-  <si>
-    <t>IDES</t>
-  </si>
-  <si>
-    <t>SVI</t>
-  </si>
-  <si>
-    <t>Praha 3</t>
-  </si>
-  <si>
-    <t>ENO</t>
-  </si>
-  <si>
-    <t>Flux&amp;PM</t>
-  </si>
-  <si>
-    <t>žádný</t>
-  </si>
-  <si>
-    <t>Agendio</t>
-  </si>
-  <si>
     <t>Praha 4</t>
   </si>
   <si>
@@ -142,9 +160,6 @@
   </si>
   <si>
     <t>Multicash</t>
-  </si>
-  <si>
-    <t>Misys</t>
   </si>
   <si>
     <t>Parkovací oprávnění</t>
@@ -291,6 +306,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -312,12 +328,14 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <i val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -469,7 +487,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -505,7 +523,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -528,21 +546,22 @@
   </sheetPr>
   <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G25" activeCellId="0" sqref="G25"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3367346938776"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.1938775510204"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.9642857142857"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.3622448979592"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="23.3367346938776"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.8673469387755"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.7244897959184"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.8877551020408"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="15.6938775510204"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.5765306122449"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="15.6938775510204"/>
     <col collapsed="false" hidden="false" max="13" min="11" style="0" width="11.5204081632653"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="18.3418367346939"/>
     <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="11.5204081632653"/>
@@ -587,557 +606,581 @@
       <c r="B2" s="0" t="s">
         <v>11</v>
       </c>
+      <c r="D2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>19</v>
+      </c>
       <c r="Q2" s="5"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>16</v>
-      </c>
       <c r="J3" s="0" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="Q3" s="5"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="Q4" s="5"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="Q5" s="5"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>34</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>11</v>
       </c>
       <c r="Q6" s="5"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="Q7" s="5"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D8" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="H8" s="0" t="s">
         <v>15</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="0" t="s">
-        <v>16</v>
       </c>
       <c r="Q8" s="5"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E9" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="0" t="s">
-        <v>16</v>
-      </c>
       <c r="I9" s="0" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="P9" s="0" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="Q9" s="5"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E10" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="0" t="s">
         <v>15</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" s="0" t="s">
-        <v>16</v>
       </c>
       <c r="Q10" s="5"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E11" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="0" t="s">
-        <v>16</v>
-      </c>
       <c r="J11" s="0" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="Q11" s="5"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E12" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="G12" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" s="0" t="s">
-        <v>16</v>
-      </c>
       <c r="J12" s="0" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="Q12" s="5"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="Q13" s="5"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="O14" s="0" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="P14" s="0" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="Q14" s="5" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="B15" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>56</v>
-      </c>
       <c r="E15" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="G15" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" s="0" t="s">
-        <v>16</v>
-      </c>
       <c r="K15" s="0" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="Q15" s="5"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E16" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="H16" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="H16" s="0" t="s">
-        <v>16</v>
-      </c>
       <c r="I16" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="K16" s="0" t="s">
         <v>65</v>
-      </c>
-      <c r="K16" s="0" t="s">
-        <v>60</v>
       </c>
       <c r="Q16" s="5"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="M17" s="0" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q17" s="5"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="B18" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="E18" s="0" t="s">
+      <c r="H18" s="0" t="s">
         <v>15</v>
-      </c>
-      <c r="F18" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="G18" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="H18" s="0" t="s">
-        <v>16</v>
       </c>
       <c r="Q18" s="5"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="Q19" s="5"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="Q20" s="5"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="Q21" s="5"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="Q22" s="5"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
       <c r="J23" s="7" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
@@ -1149,7 +1192,7 @@
     </row>
     <row r="25" customFormat="false" ht="23.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="9" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -1179,7 +1222,7 @@
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A27" activeCellId="0" sqref="A27"/>
+      <selection pane="topLeft" activeCell="I4" activeCellId="0" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1187,7 +1230,7 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.8673469387755"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.25"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.9183673469388"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.5918367346939"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.5204081632653"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.24489795918367"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="5.96428571428571"/>
@@ -1207,46 +1250,46 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="G1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="K1" s="11" t="s">
+      <c r="M1" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="O1" s="12" t="s">
         <v>28</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="N1" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="O1" s="12" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1257,11 +1300,29 @@
       <c r="A3" s="14" t="s">
         <v>10</v>
       </c>
+      <c r="B3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="O3" s="5"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="14" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1</v>
@@ -1278,7 +1339,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="14" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>1</v>
@@ -1302,7 +1363,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="14" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1</v>
@@ -1316,19 +1377,19 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="14" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="O7" s="5"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="14" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="O8" s="5"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="14" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>1</v>
@@ -1352,7 +1413,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="14" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>1</v>
@@ -1367,7 +1428,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="14" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>1</v>
@@ -1388,7 +1449,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="14" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>1</v>
@@ -1408,7 +1469,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="14" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>1</v>
@@ -1435,13 +1496,13 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="14" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="O14" s="5"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="14" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1</v>
@@ -1462,7 +1523,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="14" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>1</v>
@@ -1489,7 +1550,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="14" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>1</v>
@@ -1513,7 +1574,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="14" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>1</v>
@@ -1534,7 +1595,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="14" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>1</v>
@@ -1552,7 +1613,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="14" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>1</v>
@@ -1570,13 +1631,13 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="14" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="O21" s="5"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="14" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>1</v>
@@ -1594,7 +1655,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="14" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>1</v>
@@ -1612,7 +1673,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="14" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B24" s="7" t="n">
         <v>1</v>
@@ -1637,7 +1698,7 @@
       <c r="A25" s="15"/>
       <c r="B25" s="16" t="n">
         <f aca="false">SUM(B2:B24)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C25" s="16" t="n">
         <f aca="false">SUM(C3:C24)</f>
@@ -1645,7 +1706,7 @@
       </c>
       <c r="D25" s="16" t="n">
         <f aca="false">SUM(D3:D24)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" s="16" t="n">
         <f aca="false">SUM(E3:E24)</f>
@@ -1670,15 +1731,15 @@
       </c>
       <c r="K25" s="16" t="n">
         <f aca="false">SUM(K3:K24)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L25" s="16" t="n">
         <f aca="false">SUM(L2:L24)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M25" s="16" t="n">
         <f aca="false">SUM(M2:M24)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N25" s="16" t="n">
         <v>2</v>
@@ -1690,7 +1751,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="18" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
@@ -1715,7 +1776,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>

--- a/materialy/software-mestskych-casti/2016/prehled-software-mc.xlsx
+++ b/materialy/software-mestskych-casti/2016/prehled-software-mc.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Přehledová tabulka" sheetId="1" state="visible" r:id="rId2"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="97">
   <si>
     <t>městská část </t>
   </si>
@@ -142,6 +142,21 @@
   </si>
   <si>
     <t>Praha 6</t>
+  </si>
+  <si>
+    <t>Datacentrum2</t>
+  </si>
+  <si>
+    <t>Materiály RMČ</t>
+  </si>
+  <si>
+    <t>ISMA</t>
+  </si>
+  <si>
+    <t>VERA</t>
+  </si>
+  <si>
+    <t>VISA</t>
   </si>
   <si>
     <t>Praha 7</t>
@@ -546,8 +561,8 @@
   </sheetPr>
   <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -736,7 +751,7 @@
         <v>40</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="5"/>
     </row>
@@ -747,11 +762,32 @@
       <c r="B7" s="0" t="s">
         <v>34</v>
       </c>
+      <c r="D7" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>46</v>
+      </c>
       <c r="Q7" s="5"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>21</v>
@@ -766,7 +802,7 @@
         <v>13</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G8" s="0" t="s">
         <v>14</v>
@@ -778,7 +814,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>21</v>
@@ -787,7 +823,7 @@
         <v>21</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>13</v>
@@ -799,10 +835,10 @@
         <v>15</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="L9" s="0" t="s">
         <v>26</v>
@@ -811,28 +847,28 @@
         <v>17</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="P9" s="0" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="Q9" s="5"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>13</v>
@@ -850,7 +886,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>21</v>
@@ -877,7 +913,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>21</v>
@@ -886,13 +922,13 @@
         <v>31</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>13</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G12" s="0" t="s">
         <v>14</v>
@@ -901,13 +937,13 @@
         <v>15</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="Q12" s="5"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>34</v>
@@ -916,16 +952,16 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>13</v>
@@ -934,13 +970,13 @@
         <v>13</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="N14" s="0" t="s">
         <v>26</v>
@@ -949,30 +985,30 @@
         <v>17</v>
       </c>
       <c r="P14" s="0" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="Q14" s="5" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="B15" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>61</v>
-      </c>
       <c r="E15" s="0" t="s">
         <v>13</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="G15" s="0" t="s">
         <v>14</v>
@@ -987,7 +1023,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>21</v>
@@ -996,37 +1032,37 @@
         <v>31</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E16" s="0" t="s">
         <v>13</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="H16" s="0" t="s">
         <v>15</v>
       </c>
       <c r="I16" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="K16" s="0" t="s">
         <v>70</v>
-      </c>
-      <c r="K16" s="0" t="s">
-        <v>65</v>
       </c>
       <c r="Q16" s="5"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>21</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F17" s="0" t="s">
         <v>33</v>
@@ -1050,13 +1086,13 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>21</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E18" s="0" t="s">
         <v>13</v>
@@ -1065,7 +1101,7 @@
         <v>33</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="H18" s="0" t="s">
         <v>15</v>
@@ -1074,7 +1110,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>21</v>
@@ -1083,7 +1119,7 @@
         <v>31</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E19" s="0" t="s">
         <v>21</v>
@@ -1095,19 +1131,19 @@
         <v>15</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="Q19" s="5"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>34</v>
@@ -1116,7 +1152,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>21</v>
@@ -1125,7 +1161,7 @@
         <v>31</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E21" s="0" t="s">
         <v>13</v>
@@ -1134,13 +1170,13 @@
         <v>13</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="Q21" s="5"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>21</v>
@@ -1149,7 +1185,7 @@
         <v>31</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E22" s="0" t="s">
         <v>13</v>
@@ -1161,14 +1197,14 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>21</v>
@@ -1180,7 +1216,7 @@
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
       <c r="J23" s="7" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
@@ -1192,7 +1228,7 @@
     </row>
     <row r="25" customFormat="false" ht="23.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="9" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -1221,8 +1257,8 @@
   </sheetPr>
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I4" activeCellId="0" sqref="I4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1250,31 +1286,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G1" s="11" t="s">
         <v>13</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="K1" s="11" t="s">
         <v>14</v>
@@ -1286,7 +1322,7 @@
         <v>17</v>
       </c>
       <c r="N1" s="11" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="O1" s="12" t="s">
         <v>28</v>
@@ -1379,6 +1415,15 @@
       <c r="A7" s="14" t="s">
         <v>40</v>
       </c>
+      <c r="B7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="O7" s="5"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1389,7 +1434,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="14" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>1</v>
@@ -1413,7 +1458,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="14" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>1</v>
@@ -1428,7 +1473,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="14" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>1</v>
@@ -1449,7 +1494,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="14" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>1</v>
@@ -1469,7 +1514,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="14" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>1</v>
@@ -1496,13 +1541,13 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="14" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="O14" s="5"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="14" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1</v>
@@ -1523,7 +1568,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="14" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>1</v>
@@ -1550,7 +1595,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="14" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>1</v>
@@ -1574,7 +1619,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="14" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>1</v>
@@ -1595,7 +1640,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="14" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>1</v>
@@ -1613,7 +1658,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="14" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>1</v>
@@ -1631,13 +1676,13 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="14" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="O21" s="5"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="14" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>1</v>
@@ -1655,7 +1700,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="14" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>1</v>
@@ -1673,7 +1718,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="14" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B24" s="7" t="n">
         <v>1</v>
@@ -1698,7 +1743,7 @@
       <c r="A25" s="15"/>
       <c r="B25" s="16" t="n">
         <f aca="false">SUM(B2:B24)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C25" s="16" t="n">
         <f aca="false">SUM(C3:C24)</f>
@@ -1706,7 +1751,7 @@
       </c>
       <c r="D25" s="16" t="n">
         <f aca="false">SUM(D3:D24)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" s="16" t="n">
         <f aca="false">SUM(E3:E24)</f>
@@ -1735,7 +1780,7 @@
       </c>
       <c r="L25" s="16" t="n">
         <f aca="false">SUM(L2:L24)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M25" s="16" t="n">
         <f aca="false">SUM(M2:M24)</f>
@@ -1751,7 +1796,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="18" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>

--- a/materialy/software-mestskych-casti/2016/prehled-software-mc.xlsx
+++ b/materialy/software-mestskych-casti/2016/prehled-software-mc.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Přehledová tabulka" sheetId="1" state="visible" r:id="rId2"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="102">
   <si>
     <t>městská část </t>
   </si>
@@ -141,22 +141,28 @@
     <t>Praha 5</t>
   </si>
   <si>
+    <t>Datacentrum2</t>
+  </si>
+  <si>
+    <t>Materiály RMČ</t>
+  </si>
+  <si>
+    <t>ISMA</t>
+  </si>
+  <si>
+    <t>VERA</t>
+  </si>
+  <si>
+    <t>VISA</t>
+  </si>
+  <si>
     <t>Praha 6</t>
   </si>
   <si>
-    <t>Datacentrum2</t>
-  </si>
-  <si>
-    <t>Materiály RMČ</t>
-  </si>
-  <si>
-    <t>ISMA</t>
-  </si>
-  <si>
-    <t>VERA</t>
-  </si>
-  <si>
-    <t>VISA</t>
+    <t>Usnesení RMČ</t>
+  </si>
+  <si>
+    <t>Geowap</t>
   </si>
   <si>
     <t>Praha 7</t>
@@ -208,6 +214,15 @@
   </si>
   <si>
     <t>Praha 12</t>
+  </si>
+  <si>
+    <t>Avensio</t>
+  </si>
+  <si>
+    <t>TED</t>
+  </si>
+  <si>
+    <t>Pasport zeleně</t>
   </si>
   <si>
     <t>Praha 13</t>
@@ -561,8 +576,8 @@
   </sheetPr>
   <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -726,6 +741,15 @@
       <c r="C5" s="0" t="s">
         <v>21</v>
       </c>
+      <c r="D5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>33</v>
+      </c>
       <c r="H5" s="0" t="s">
         <v>15</v>
       </c>
@@ -753,41 +777,65 @@
       <c r="B6" s="0" t="s">
         <v>21</v>
       </c>
+      <c r="D6" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>45</v>
+      </c>
       <c r="Q6" s="5"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>42</v>
-      </c>
       <c r="E7" s="0" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>15</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="L7" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="5"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>21</v>
@@ -802,7 +850,7 @@
         <v>13</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G8" s="0" t="s">
         <v>14</v>
@@ -814,7 +862,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>21</v>
@@ -823,7 +871,7 @@
         <v>21</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>13</v>
@@ -835,10 +883,10 @@
         <v>15</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L9" s="0" t="s">
         <v>26</v>
@@ -847,28 +895,28 @@
         <v>17</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="P9" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="Q9" s="5"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>13</v>
@@ -886,7 +934,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>21</v>
@@ -913,7 +961,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>21</v>
@@ -922,13 +970,13 @@
         <v>31</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>13</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G12" s="0" t="s">
         <v>14</v>
@@ -937,31 +985,49 @@
         <v>15</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Q12" s="5"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>34</v>
+        <v>21</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="K13" s="0" t="s">
+        <v>27</v>
       </c>
       <c r="Q13" s="5"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>13</v>
@@ -970,13 +1036,13 @@
         <v>13</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="N14" s="0" t="s">
         <v>26</v>
@@ -985,30 +1051,30 @@
         <v>17</v>
       </c>
       <c r="P14" s="0" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="Q14" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="B15" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>66</v>
-      </c>
       <c r="E15" s="0" t="s">
         <v>13</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G15" s="0" t="s">
         <v>14</v>
@@ -1023,7 +1089,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>21</v>
@@ -1032,37 +1098,37 @@
         <v>31</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E16" s="0" t="s">
         <v>13</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H16" s="0" t="s">
         <v>15</v>
       </c>
       <c r="I16" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="K16" s="0" t="s">
         <v>75</v>
-      </c>
-      <c r="K16" s="0" t="s">
-        <v>70</v>
       </c>
       <c r="Q16" s="5"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>21</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F17" s="0" t="s">
         <v>33</v>
@@ -1086,13 +1152,13 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>21</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E18" s="0" t="s">
         <v>13</v>
@@ -1101,7 +1167,7 @@
         <v>33</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H18" s="0" t="s">
         <v>15</v>
@@ -1110,7 +1176,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>21</v>
@@ -1119,7 +1185,7 @@
         <v>31</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E19" s="0" t="s">
         <v>21</v>
@@ -1131,19 +1197,19 @@
         <v>15</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="Q19" s="5"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>34</v>
@@ -1152,7 +1218,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>21</v>
@@ -1161,7 +1227,7 @@
         <v>31</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E21" s="0" t="s">
         <v>13</v>
@@ -1170,13 +1236,13 @@
         <v>13</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="Q21" s="5"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>21</v>
@@ -1185,7 +1251,7 @@
         <v>31</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E22" s="0" t="s">
         <v>13</v>
@@ -1197,14 +1263,14 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>21</v>
@@ -1216,7 +1282,7 @@
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
       <c r="J23" s="7" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
@@ -1228,7 +1294,7 @@
     </row>
     <row r="25" customFormat="false" ht="23.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="9" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -1257,8 +1323,8 @@
   </sheetPr>
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1286,31 +1352,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="G1" s="11" t="s">
         <v>13</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="K1" s="11" t="s">
         <v>14</v>
@@ -1322,7 +1388,7 @@
         <v>17</v>
       </c>
       <c r="N1" s="11" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="O1" s="12" t="s">
         <v>28</v>
@@ -1428,13 +1494,19 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="14" t="s">
-        <v>41</v>
+        <v>46</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="O8" s="5"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="14" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>1</v>
@@ -1458,7 +1530,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>1</v>
@@ -1473,7 +1545,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>1</v>
@@ -1494,7 +1566,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>1</v>
@@ -1514,7 +1586,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>1</v>
@@ -1541,13 +1613,16 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="14" t="s">
-        <v>63</v>
+        <v>65</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="O14" s="5"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="14" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1</v>
@@ -1568,7 +1643,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="14" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>1</v>
@@ -1595,7 +1670,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="14" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>1</v>
@@ -1619,7 +1694,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="14" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>1</v>
@@ -1640,7 +1715,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="14" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>1</v>
@@ -1658,7 +1733,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="14" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>1</v>
@@ -1676,13 +1751,13 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="14" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="O21" s="5"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="14" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>1</v>
@@ -1700,7 +1775,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="14" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>1</v>
@@ -1718,7 +1793,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="14" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B24" s="7" t="n">
         <v>1</v>
@@ -1743,11 +1818,11 @@
       <c r="A25" s="15"/>
       <c r="B25" s="16" t="n">
         <f aca="false">SUM(B2:B24)</f>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C25" s="16" t="n">
         <f aca="false">SUM(C3:C24)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D25" s="16" t="n">
         <f aca="false">SUM(D3:D24)</f>
@@ -1796,7 +1871,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="18" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
